--- a/output/1Y_P44_1VAL-D.xlsx
+++ b/output/1Y_P44_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>589.2717</v>
       </c>
-      <c r="G2" s="1">
-        <v>589.2717</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1441</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9701</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1441</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E3" s="1">
+        <v>589.2717</v>
+      </c>
       <c r="F3" s="1">
         <v>555.8489</v>
       </c>
-      <c r="G3" s="1">
-        <v>1145.1206</v>
-      </c>
       <c r="H3" s="1">
-        <v>20494.4531</v>
+        <v>10546.3138</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4654</v>
+        <v>10546.3138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.9701</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20494.4531</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0274</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E4" s="1">
+        <v>1145.1206</v>
+      </c>
       <c r="F4" s="1">
         <v>548.3388</v>
       </c>
-      <c r="G4" s="1">
-        <v>1693.4594</v>
-      </c>
       <c r="H4" s="1">
-        <v>30723.2493</v>
+        <v>20775.1222</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.7152</v>
+        <v>20775.1222</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.4654</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30723.2493</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0075</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E5" s="1">
+        <v>1693.4594</v>
+      </c>
       <c r="F5" s="1">
         <v>522.4797</v>
       </c>
-      <c r="G5" s="1">
-        <v>2215.9391</v>
-      </c>
       <c r="H5" s="1">
-        <v>42191.9243</v>
+        <v>32243.8066</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.051</v>
+        <v>32243.8066</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.7152</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42191.9243</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0361</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>20.979</v>
       </c>
+      <c r="E6" s="1">
+        <v>2215.9391</v>
+      </c>
       <c r="F6" s="1">
         <v>476.6671</v>
       </c>
-      <c r="G6" s="1">
-        <v>2692.6063</v>
-      </c>
       <c r="H6" s="1">
-        <v>56195.5008</v>
+        <v>46247.3145</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.5694</v>
+        <v>46247.3145</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.051</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56195.5008</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0767</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E7" s="1">
+        <v>2692.6063</v>
+      </c>
       <c r="F7" s="1">
         <v>446.606</v>
       </c>
-      <c r="G7" s="1">
-        <v>3139.2123</v>
-      </c>
       <c r="H7" s="1">
-        <v>69926.2678</v>
+        <v>59978.0741</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>19.1131</v>
+        <v>59978.0741</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.5694</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>69926.2678</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0564</v>
+        <v>0.0663</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E8" s="1">
+        <v>3139.2123</v>
+      </c>
       <c r="F8" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G8" s="1">
-        <v>3569.2588</v>
-      </c>
       <c r="H8" s="1">
-        <v>82566.59269999999</v>
+        <v>72618.45630000001</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>19.6119</v>
+        <v>72618.45630000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>19.1131</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>82566.59269999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.033</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>22.965</v>
       </c>
+      <c r="E9" s="1">
+        <v>3569.2588</v>
+      </c>
       <c r="F9" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G9" s="1">
-        <v>4004.704</v>
-      </c>
       <c r="H9" s="1">
-        <v>91491.0677</v>
+        <v>81542.9293</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>19.9765</v>
+        <v>81542.9293</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>19.6119</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>91491.0677</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0116</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E10" s="1">
+        <v>4004.704</v>
+      </c>
       <c r="F10" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G10" s="1">
-        <v>4505.5354</v>
-      </c>
       <c r="H10" s="1">
-        <v>89494.8015</v>
+        <v>79546.6375</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>19.9754</v>
+        <v>79546.6375</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>19.9765</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89494.8015</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.1182</v>
+        <v>-0.131</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E11" s="1">
+        <v>4505.5354</v>
+      </c>
       <c r="F11" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G11" s="1">
-        <v>5053.6578</v>
-      </c>
       <c r="H11" s="1">
-        <v>91721.3625</v>
+        <v>81773.21490000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.7876</v>
+        <v>81773.21490000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>19.9754</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91721.3625</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0781</v>
+        <v>-0.0868</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E12" s="1">
+        <v>5053.6578</v>
+      </c>
       <c r="F12" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G12" s="1">
-        <v>5751.8502</v>
-      </c>
       <c r="H12" s="1">
-        <v>81954.6623</v>
+        <v>72006.538</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.1243</v>
+        <v>72006.538</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>19.7876</v>
+      </c>
+      <c r="M12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="1">
-        <v>9096.5841</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-903.4159</v>
+        <v>8109.9637</v>
       </c>
       <c r="O12" s="1">
-        <v>9096.5841</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>91051.2464</v>
+        <v>-1890.0363</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1049</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E13" s="1">
+        <v>5751.8502</v>
+      </c>
       <c r="F13" s="1">
-        <v>1212.9975</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6964.8477</v>
+        <v>1150.3283</v>
       </c>
       <c r="H13" s="1">
-        <v>109081.3556</v>
+        <v>90083.7522</v>
       </c>
       <c r="I13" s="1">
-        <v>129096.5841</v>
+        <v>8109.9637</v>
       </c>
       <c r="J13" s="1">
-        <v>18.5354</v>
+        <v>98193.7159</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>118109.9637</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>20.5343</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-19096.5841</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>109081.3556</v>
+        <v>-18109.9637</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0795</v>
+        <v>0.1974</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E14" s="1">
+        <v>6902.1785</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6964.8477</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-5751.8502</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111189.9544</v>
       </c>
       <c r="I14" s="1">
-        <v>129096.5841</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.5354</v>
+        <v>111189.9544</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>118109.9637</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.112</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112199.518</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112199.518</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112199.518</v>
+        <v>92658.85550000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0578</v>
+        <v>0.0277</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.9701</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.2717</v>
       </c>
       <c r="G2" s="1">
-        <v>589.2717</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1441</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9701</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1441</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.9905</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>589.2717</v>
       </c>
       <c r="F3" s="1">
         <v>528.2215</v>
       </c>
       <c r="G3" s="1">
-        <v>1117.4932</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10546.3138</v>
       </c>
       <c r="I3" s="1">
-        <v>19502.9693</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4524</v>
+        <v>10546.3138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9502.969300000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1266</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9502.969300000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>497.0307</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20497.0307</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0275</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.2369</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1117.4932</v>
       </c>
       <c r="F4" s="1">
         <v>536.1008</v>
       </c>
       <c r="G4" s="1">
-        <v>1653.5941</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20273.8976</v>
       </c>
       <c r="I4" s="1">
-        <v>29279.7868</v>
+        <v>497.0307</v>
       </c>
       <c r="J4" s="1">
-        <v>17.7068</v>
+        <v>20770.9283</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19279.7868</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2527</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9776.817499999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>720.2132</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30720.2132</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0073</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>19.1395</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1653.5941</v>
       </c>
       <c r="F5" s="1">
         <v>447.2242</v>
       </c>
       <c r="G5" s="1">
-        <v>2100.8183</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31484.7621</v>
       </c>
       <c r="I5" s="1">
-        <v>37839.434</v>
+        <v>720.2132</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0118</v>
+        <v>32204.9753</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27839.434</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.8357</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8559.647199999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2160.566</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42160.566</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0354</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>20.979</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2100.8183</v>
       </c>
       <c r="F6" s="1">
         <v>294.9307</v>
       </c>
       <c r="G6" s="1">
-        <v>2395.749</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>43844.7075</v>
       </c>
       <c r="I6" s="1">
-        <v>44026.7855</v>
+        <v>2160.566</v>
       </c>
       <c r="J6" s="1">
-        <v>18.377</v>
+        <v>46005.2735</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34026.7855</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.1969</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6187.3515</v>
       </c>
-      <c r="O6" s="1">
-        <v>5973.2145</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55973.2145</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0731</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>22.3911</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2395.749</v>
       </c>
       <c r="F7" s="1">
         <v>297.8416</v>
       </c>
       <c r="G7" s="1">
-        <v>2693.5906</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>53365.5482</v>
       </c>
       <c r="I7" s="1">
-        <v>50695.7869</v>
+        <v>5973.2145</v>
       </c>
       <c r="J7" s="1">
-        <v>18.8209</v>
+        <v>59338.7627</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>40695.7869</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.9867</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6669.0015</v>
       </c>
-      <c r="O7" s="1">
-        <v>9304.213100000001</v>
-      </c>
-      <c r="P7" s="1">
-        <v>69304.21309999999</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0505</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>23.2533</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>2693.5906</v>
       </c>
       <c r="F8" s="1">
         <v>332.4288</v>
       </c>
       <c r="G8" s="1">
-        <v>3026.0194</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62310.0233</v>
       </c>
       <c r="I8" s="1">
-        <v>58425.8546</v>
+        <v>9304.213100000001</v>
       </c>
       <c r="J8" s="1">
-        <v>19.3078</v>
+        <v>71614.23639999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>48425.8546</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9782</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7730.0676</v>
       </c>
-      <c r="O8" s="1">
-        <v>11574.1454</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81574.14539999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0286</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>22.965</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3026.0194</v>
       </c>
       <c r="F9" s="1">
         <v>475.703</v>
       </c>
       <c r="G9" s="1">
-        <v>3501.7224</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>69132.1376</v>
       </c>
       <c r="I9" s="1">
-        <v>69350.3732</v>
+        <v>11574.1454</v>
       </c>
       <c r="J9" s="1">
-        <v>19.8046</v>
+        <v>80706.2831</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>59350.3732</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>19.6133</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10924.5186</v>
       </c>
-      <c r="O9" s="1">
-        <v>10649.6268</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90649.6268</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0101</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>19.9668</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>3501.7224</v>
       </c>
       <c r="F10" s="1">
         <v>1029.2468</v>
       </c>
       <c r="G10" s="1">
-        <v>4530.9692</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>69555.76270000001</v>
       </c>
       <c r="I10" s="1">
-        <v>89901.1375</v>
+        <v>10649.6268</v>
       </c>
       <c r="J10" s="1">
-        <v>19.8415</v>
+        <v>80205.38959999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79901.1375</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>22.8177</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-20550.7643</v>
       </c>
-      <c r="O10" s="1">
-        <v>98.8625</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90098.8625</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.1048</v>
+        <v>-0.1158</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.2441</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4530.9692</v>
       </c>
       <c r="F11" s="1">
         <v>553.5413</v>
       </c>
       <c r="G11" s="1">
-        <v>5084.5105</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>92281.3226</v>
+        <v>82234.825</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>98.8625</v>
       </c>
       <c r="J11" s="1">
-        <v>19.6676</v>
+        <v>82333.6876</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>19.8633</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10098.8625</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92281.3226</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0781</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.3227</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5084.5105</v>
       </c>
       <c r="F12" s="1">
         <v>698.1924</v>
       </c>
       <c r="G12" s="1">
-        <v>5782.7028</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>82394.2631</v>
+        <v>72446.1388</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.0222</v>
+        <v>72446.1388</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>19.6676</v>
+      </c>
+      <c r="M12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="1">
-        <v>9152.1188</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-847.8812</v>
+        <v>8155.7445</v>
       </c>
       <c r="O12" s="1">
-        <v>9152.1188</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>91546.38189999999</v>
+        <v>-1844.2555</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.105</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.7433</v>
       </c>
       <c r="E13" s="1">
+        <v>5782.7028</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1153.2363</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>1216.5251</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6999.2279</v>
-      </c>
       <c r="H13" s="1">
-        <v>109619.8074</v>
+        <v>90566.95699999999</v>
       </c>
       <c r="I13" s="1">
-        <v>129152.1188</v>
+        <v>8155.7445</v>
       </c>
       <c r="J13" s="1">
-        <v>18.4523</v>
+        <v>98722.7016</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>118155.7445</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>20.4326</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-19152.1188</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>109619.8074</v>
+        <v>-18155.7445</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0795</v>
+        <v>0.1974</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>16.1934</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6935.9391</v>
       </c>
       <c r="F14" s="1">
-        <v>-6999.2279</v>
+        <v>-6935.9391</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111733.8174</v>
       </c>
       <c r="I14" s="1">
-        <v>129152.1188</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.4523</v>
+        <v>111733.8174</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>118155.7445</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0353</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112753.3617</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112753.3617</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112753.3617</v>
+        <v>111733.8174</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0574</v>
+        <v>0.0277</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.9701</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.2717</v>
       </c>
       <c r="G2" s="1">
-        <v>589.2717</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1441</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9701</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1441</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.9905</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>589.2717</v>
       </c>
       <c r="F3" s="1">
         <v>531.0153</v>
       </c>
       <c r="G3" s="1">
-        <v>1120.287</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10546.3138</v>
       </c>
       <c r="I3" s="1">
-        <v>19553.2299</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4538</v>
+        <v>10546.3138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9553.2299</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.2119</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9553.2299</v>
       </c>
-      <c r="O3" s="1">
-        <v>446.7701</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20496.7701</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0275</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.2369</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1120.287</v>
       </c>
       <c r="F4" s="1">
         <v>541.5889</v>
       </c>
       <c r="G4" s="1">
-        <v>1661.8758</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20324.5823</v>
       </c>
       <c r="I4" s="1">
-        <v>29430.1319</v>
+        <v>446.7701</v>
       </c>
       <c r="J4" s="1">
-        <v>17.709</v>
+        <v>20771.3524</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19430.1319</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3439</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9876.902</v>
       </c>
-      <c r="O4" s="1">
-        <v>569.8681</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30720.1181</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0073</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>19.1395</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1661.8758</v>
       </c>
       <c r="F5" s="1">
         <v>454.7512</v>
       </c>
       <c r="G5" s="1">
-        <v>2116.627</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31642.4483</v>
       </c>
       <c r="I5" s="1">
-        <v>38133.8416</v>
+        <v>569.8681</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0163</v>
+        <v>32212.3164</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28133.8416</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.929</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8703.709699999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1866.1584</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42167.1596</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0355</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>20.979</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2116.627</v>
       </c>
       <c r="F6" s="1">
         <v>303.1996</v>
       </c>
       <c r="G6" s="1">
-        <v>2419.8266</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>44174.6403</v>
       </c>
       <c r="I6" s="1">
-        <v>44494.6653</v>
+        <v>1866.1584</v>
       </c>
       <c r="J6" s="1">
-        <v>18.3875</v>
+        <v>46040.7987</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34494.6653</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.297</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6360.8237</v>
       </c>
-      <c r="O6" s="1">
-        <v>5505.3347</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56007.8409</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0736</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>22.3911</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2419.8266</v>
       </c>
       <c r="F7" s="1">
         <v>307.6592</v>
       </c>
       <c r="G7" s="1">
-        <v>2727.4858</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53901.8786</v>
       </c>
       <c r="I7" s="1">
-        <v>51383.494</v>
+        <v>5505.3347</v>
       </c>
       <c r="J7" s="1">
-        <v>18.8391</v>
+        <v>59407.2133</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>41383.494</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.1018</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6888.8287</v>
       </c>
-      <c r="O7" s="1">
-        <v>8616.505999999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>69371.5248</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.051</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>23.2533</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>2727.4858</v>
       </c>
       <c r="F8" s="1">
         <v>344.3041</v>
       </c>
       <c r="G8" s="1">
-        <v>3071.7899</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63094.1106</v>
       </c>
       <c r="I8" s="1">
-        <v>59389.7004</v>
+        <v>8616.505999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>19.3339</v>
+        <v>71710.61659999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>49389.7004</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.1081</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8006.2064</v>
       </c>
-      <c r="O8" s="1">
-        <v>10610.2996</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81669.0935</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0289</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>22.965</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3071.7899</v>
       </c>
       <c r="F9" s="1">
         <v>491.8293</v>
       </c>
       <c r="G9" s="1">
-        <v>3563.6192</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>70177.8045</v>
       </c>
       <c r="I9" s="1">
-        <v>70684.56050000001</v>
+        <v>10610.2996</v>
       </c>
       <c r="J9" s="1">
-        <v>19.835</v>
+        <v>80788.1042</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>60684.5605</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>19.7554</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11294.8602</v>
       </c>
-      <c r="O9" s="1">
-        <v>9315.4395</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90729.5273</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0102</v>
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>19.9668</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>3563.6192</v>
       </c>
       <c r="F10" s="1">
         <v>967.3778</v>
       </c>
       <c r="G10" s="1">
-        <v>4530.997</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>90000.5531</v>
+        <v>70785.2372</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>9315.4395</v>
       </c>
       <c r="J10" s="1">
-        <v>19.8632</v>
+        <v>80100.6767</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>22.4491</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-19315.4395</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90000.5531</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.1065</v>
+        <v>-0.1177</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.2441</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>4530.997</v>
       </c>
       <c r="F11" s="1">
         <v>548.1224</v>
       </c>
       <c r="G11" s="1">
-        <v>5079.1194</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92183.478</v>
+        <v>82235.33040000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.6885</v>
+        <v>82235.33040000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>19.8632</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92183.478</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.07820000000000001</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.3227</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5079.1194</v>
       </c>
       <c r="F12" s="1">
         <v>698.1924</v>
       </c>
       <c r="G12" s="1">
-        <v>5777.3118</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>82317.4495</v>
+        <v>72369.32520000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.04</v>
+        <v>72369.32520000001</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>19.6885</v>
+      </c>
+      <c r="M12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="1">
-        <v>9142.415000000001</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-857.585</v>
+        <v>8155.7946</v>
       </c>
       <c r="O12" s="1">
-        <v>9142.415000000001</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>91459.8645</v>
+        <v>-1844.2054</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1049</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.7433</v>
       </c>
       <c r="E13" s="1">
+        <v>5777.3118</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1153.2395</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>1215.9087</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6993.2205</v>
-      </c>
       <c r="H13" s="1">
-        <v>109525.7211</v>
+        <v>90482.5243</v>
       </c>
       <c r="I13" s="1">
-        <v>129142.415</v>
+        <v>8155.7946</v>
       </c>
       <c r="J13" s="1">
-        <v>18.4668</v>
+        <v>98638.3189</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>118155.7946</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>20.4517</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-19142.415</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>109525.7211</v>
+        <v>-18155.7946</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0795</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>16.1934</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6930.5513</v>
       </c>
       <c r="F14" s="1">
-        <v>-6993.2205</v>
+        <v>-6930.5513</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111647.0224</v>
       </c>
       <c r="I14" s="1">
-        <v>129142.415</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.4668</v>
+        <v>111647.0224</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>118155.7946</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0485</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112656.5859</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112656.5859</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112656.5859</v>
+        <v>111647.0224</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0575</v>
+        <v>0.0277</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.9701</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.2717</v>
       </c>
       <c r="G2" s="1">
-        <v>589.2717</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1441</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9701</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1441</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.9905</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>589.2717</v>
       </c>
       <c r="F3" s="1">
         <v>533.809</v>
       </c>
       <c r="G3" s="1">
-        <v>1123.0807</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10546.3138</v>
       </c>
       <c r="I3" s="1">
-        <v>19603.4906</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4551</v>
+        <v>10546.3138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9603.490599999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.2972</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9603.490599999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>396.5094</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20496.5094</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0275</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.2369</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1123.0807</v>
       </c>
       <c r="F4" s="1">
         <v>547.1044000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1670.1851</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20375.2671</v>
       </c>
       <c r="I4" s="1">
-        <v>29580.9796</v>
+        <v>396.5094</v>
       </c>
       <c r="J4" s="1">
-        <v>17.7112</v>
+        <v>20771.7765</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19580.9796</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.4351</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9977.489</v>
       </c>
-      <c r="O4" s="1">
-        <v>419.0204</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30720.0204</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0073</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>19.1395</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1670.1851</v>
       </c>
       <c r="F5" s="1">
         <v>462.356</v>
       </c>
       <c r="G5" s="1">
-        <v>2132.5411</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31800.6592</v>
       </c>
       <c r="I5" s="1">
-        <v>38430.2423</v>
+        <v>419.0204</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0209</v>
+        <v>32219.6797</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28430.2423</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.0222</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8849.262699999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1569.7577</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42173.7677</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0357</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>20.979</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2132.5411</v>
       </c>
       <c r="F6" s="1">
         <v>311.6044</v>
       </c>
       <c r="G6" s="1">
-        <v>2444.1455</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>44506.7736</v>
       </c>
       <c r="I6" s="1">
-        <v>44967.3902</v>
+        <v>1569.7577</v>
       </c>
       <c r="J6" s="1">
-        <v>18.398</v>
+        <v>46076.5313</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34967.3902</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.3971</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6537.1479</v>
       </c>
-      <c r="O6" s="1">
-        <v>5032.6098</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56042.6599</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0742</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>22.3911</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2444.1455</v>
       </c>
       <c r="F7" s="1">
         <v>317.6895</v>
       </c>
       <c r="G7" s="1">
-        <v>2761.835</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>54443.5857</v>
       </c>
       <c r="I7" s="1">
-        <v>52080.8071</v>
+        <v>5032.6098</v>
       </c>
       <c r="J7" s="1">
-        <v>18.8573</v>
+        <v>59476.1955</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42080.8071</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.217</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7113.4169</v>
       </c>
-      <c r="O7" s="1">
-        <v>7919.1929</v>
-      </c>
-      <c r="P7" s="1">
-        <v>69439.3435</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0514</v>
+        <v>0.0606</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>23.2533</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>2761.835</v>
       </c>
       <c r="F8" s="1">
         <v>356.4933</v>
       </c>
       <c r="G8" s="1">
-        <v>3118.3283</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63888.7003</v>
       </c>
       <c r="I8" s="1">
-        <v>60370.452</v>
+        <v>7919.1929</v>
       </c>
       <c r="J8" s="1">
-        <v>19.3599</v>
+        <v>71807.89320000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>50370.452</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.238</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8289.644899999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>9629.548000000001</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81764.9001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0293</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>22.965</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3118.3283</v>
       </c>
       <c r="F9" s="1">
         <v>508.4365</v>
       </c>
       <c r="G9" s="1">
-        <v>3626.7648</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>71241.0156</v>
       </c>
       <c r="I9" s="1">
-        <v>72046.69680000001</v>
+        <v>9629.548000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>19.8653</v>
+        <v>80870.56359999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62046.6968</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>19.8974</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11676.2449</v>
       </c>
-      <c r="O9" s="1">
-        <v>7953.3032</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90810.0088</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0104</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>19.9668</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>3626.7648</v>
       </c>
       <c r="F10" s="1">
         <v>899.1578</v>
       </c>
       <c r="G10" s="1">
-        <v>4525.9225</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89899.7573</v>
+        <v>72039.51700000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>7953.3032</v>
       </c>
       <c r="J10" s="1">
-        <v>19.8854</v>
+        <v>79992.8201</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>22.0582</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-17953.3032</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89899.7573</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.1082</v>
+        <v>-0.1197</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.2441</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>4525.9225</v>
       </c>
       <c r="F11" s="1">
         <v>548.1224</v>
       </c>
       <c r="G11" s="1">
-        <v>5074.045</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>92091.3789</v>
+        <v>82143.2313</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.7081</v>
+        <v>82143.2313</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>19.8854</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92091.3789</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.07820000000000001</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.3227</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5074.045</v>
       </c>
       <c r="F12" s="1">
         <v>698.1924</v>
       </c>
       <c r="G12" s="1">
-        <v>5772.2373</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>82245.1464</v>
+        <v>72297.0221</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.0567</v>
+        <v>72297.0221</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>19.7081</v>
+      </c>
+      <c r="M12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="1">
-        <v>9133.2809</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-866.7191</v>
+        <v>8146.6606</v>
       </c>
       <c r="O12" s="1">
-        <v>9133.2809</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>91378.4273</v>
+        <v>-1853.3394</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1049</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.7433</v>
       </c>
       <c r="E13" s="1">
+        <v>5772.2373</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1152.6593</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>1215.3285</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6987.5658</v>
-      </c>
       <c r="H13" s="1">
-        <v>109437.1595</v>
+        <v>90403.0494</v>
       </c>
       <c r="I13" s="1">
-        <v>129133.2809</v>
+        <v>8146.6606</v>
       </c>
       <c r="J13" s="1">
-        <v>18.4804</v>
+        <v>98549.71000000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>118146.6606</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>20.4681</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-19133.2809</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>109437.1595</v>
+        <v>-18146.6606</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0795</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.1934</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6924.8966</v>
       </c>
       <c r="F14" s="1">
-        <v>-6987.5658</v>
+        <v>-6924.8966</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111555.9292</v>
       </c>
       <c r="I14" s="1">
-        <v>129133.2809</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.4804</v>
+        <v>111555.9292</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>118146.6606</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0611</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112565.4928</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112565.4928</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112565.4928</v>
+        <v>111555.9292</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0575</v>
+        <v>0.0277</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.9701</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>589.2717</v>
       </c>
       <c r="G2" s="1">
-        <v>589.2717</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1441</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.9701</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1441</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.9905</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>589.2717</v>
       </c>
       <c r="F3" s="1">
         <v>536.6027</v>
       </c>
       <c r="G3" s="1">
-        <v>1125.8744</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10546.3138</v>
       </c>
       <c r="I3" s="1">
-        <v>19653.7512</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.4564</v>
+        <v>10546.3138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9653.751200000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.3825</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9653.751200000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>346.2488</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20496.2488</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0275</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.2369</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1125.8744</v>
       </c>
       <c r="F4" s="1">
         <v>552.6476</v>
       </c>
       <c r="G4" s="1">
-        <v>1678.522</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20425.9518</v>
       </c>
       <c r="I4" s="1">
-        <v>29732.3299</v>
+        <v>346.2488</v>
       </c>
       <c r="J4" s="1">
-        <v>17.7134</v>
+        <v>20772.2006</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19732.3299</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.5262</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10078.5786</v>
       </c>
-      <c r="O4" s="1">
-        <v>267.6701</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30719.9201</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0073</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>19.1395</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1678.522</v>
       </c>
       <c r="F5" s="1">
         <v>470.0391</v>
       </c>
       <c r="G5" s="1">
-        <v>2148.5611</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31959.3949</v>
       </c>
       <c r="I5" s="1">
-        <v>38728.6436</v>
+        <v>267.6701</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0254</v>
+        <v>32227.0651</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28728.6436</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1154</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8996.313700000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1271.3564</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42180.3902</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0359</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>20.979</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2148.5611</v>
       </c>
       <c r="F6" s="1">
         <v>320.1465</v>
       </c>
       <c r="G6" s="1">
-        <v>2468.7076</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>44841.1155</v>
       </c>
       <c r="I6" s="1">
-        <v>45444.9973</v>
+        <v>1271.3564</v>
       </c>
       <c r="J6" s="1">
-        <v>18.4084</v>
+        <v>46112.4719</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35444.9973</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.4971</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6716.3537</v>
       </c>
-      <c r="O6" s="1">
-        <v>4555.0027</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56077.672</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0747</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>22.3911</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2468.7076</v>
       </c>
       <c r="F7" s="1">
         <v>327.9357</v>
       </c>
       <c r="G7" s="1">
-        <v>2796.6433</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54990.7098</v>
       </c>
       <c r="I7" s="1">
-        <v>52787.8373</v>
+        <v>4555.0027</v>
       </c>
       <c r="J7" s="1">
-        <v>18.8754</v>
+        <v>59545.7125</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42787.8373</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3321</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7342.8401</v>
       </c>
-      <c r="O7" s="1">
-        <v>7212.1627</v>
-      </c>
-      <c r="P7" s="1">
-        <v>69507.67200000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0519</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>23.2533</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>2796.6433</v>
       </c>
       <c r="F8" s="1">
         <v>369.0028</v>
       </c>
       <c r="G8" s="1">
-        <v>3165.6461</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64693.9106</v>
       </c>
       <c r="I8" s="1">
-        <v>61368.3704</v>
+        <v>7212.1627</v>
       </c>
       <c r="J8" s="1">
-        <v>19.3857</v>
+        <v>71906.0733</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>51368.3704</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.3679</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8580.533100000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>8631.6296</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81861.57150000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0296</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>22.965</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3165.6461</v>
       </c>
       <c r="F9" s="1">
         <v>525.5366</v>
       </c>
       <c r="G9" s="1">
-        <v>3691.1827</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>72322.0346</v>
       </c>
       <c r="I9" s="1">
-        <v>73437.3183</v>
+        <v>8631.6296</v>
       </c>
       <c r="J9" s="1">
-        <v>19.8953</v>
+        <v>80953.6642</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63437.3183</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.0393</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12068.9478</v>
       </c>
-      <c r="O9" s="1">
-        <v>6562.6817</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90891.07279999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0106</v>
+        <v>-0.0116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>19.9668</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>3691.1827</v>
       </c>
       <c r="F10" s="1">
         <v>829.5111000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>4520.6938</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>89795.89690000001</v>
+        <v>73319.0695</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>6562.6817</v>
       </c>
       <c r="J10" s="1">
-        <v>19.9084</v>
+        <v>79881.7513</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>21.6733</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-16562.6817</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89795.89690000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.11</v>
+        <v>-0.1217</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.2441</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>4520.6938</v>
       </c>
       <c r="F11" s="1">
         <v>548.1224</v>
       </c>
       <c r="G11" s="1">
-        <v>5068.8162</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91996.4795</v>
+        <v>82048.3318</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.7285</v>
+        <v>82048.3318</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>19.9084</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>91996.4795</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.07820000000000001</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.3227</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5068.8162</v>
       </c>
       <c r="F12" s="1">
         <v>698.1924</v>
       </c>
       <c r="G12" s="1">
-        <v>5767.0086</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>82170.6449</v>
+        <v>72222.5206</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.074</v>
+        <v>72222.5206</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>19.7285</v>
+      </c>
+      <c r="M12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="1">
-        <v>9123.8691</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-876.1309</v>
+        <v>8137.2488</v>
       </c>
       <c r="O12" s="1">
-        <v>9123.8691</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>91294.5141</v>
+        <v>-1862.7512</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.1049</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.7433</v>
       </c>
       <c r="E13" s="1">
+        <v>5767.0086</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1152.0614</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>1214.7307</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6981.7392</v>
-      </c>
       <c r="H13" s="1">
-        <v>109345.9053</v>
+        <v>90321.1581</v>
       </c>
       <c r="I13" s="1">
-        <v>129123.8691</v>
+        <v>8137.2488</v>
       </c>
       <c r="J13" s="1">
-        <v>18.4945</v>
+        <v>98458.40700000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>118137.2488</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>20.485</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-19123.8691</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>109345.9053</v>
+        <v>-18137.2488</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0795</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.1934</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6919.07</v>
       </c>
       <c r="F14" s="1">
-        <v>-6981.7392</v>
+        <v>-6919.07</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111462.0664</v>
       </c>
       <c r="I14" s="1">
-        <v>129123.8691</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.4945</v>
+        <v>111462.0664</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>118137.2488</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0742</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112471.6299</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112471.6299</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112471.6299</v>
+        <v>111462.0664</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0576</v>
+        <v>0.0277</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4452,7 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.1497</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>18.5354</v>
+        <v>17.112</v>
       </c>
       <c r="D3" s="1">
-        <v>18.4523</v>
+        <v>17.0353</v>
       </c>
       <c r="E3" s="1">
-        <v>18.4668</v>
+        <v>17.0485</v>
       </c>
       <c r="F3" s="1">
-        <v>18.4804</v>
+        <v>17.0611</v>
       </c>
       <c r="G3" s="1">
-        <v>18.4945</v>
+        <v>17.0742</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.008800000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0541</v>
+        <v>0.0911</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0535</v>
+        <v>0.0901</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.054</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0544</v>
+        <v>0.0896</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0548</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.3209</v>
       </c>
       <c r="C5" s="3">
-        <v>0.23</v>
+        <v>0.3612</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2199</v>
+        <v>0.353</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2211</v>
+        <v>0.354</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2223</v>
+        <v>0.355</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2235</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.0358</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3237</v>
+        <v>0.196</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3355</v>
+        <v>0.1977</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.336</v>
+        <v>0.1965</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3361</v>
+        <v>0.1952</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.3363</v>
+        <v>0.1938</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1192</v>
+        <v>-0.3953</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1168</v>
+        <v>-0.1327</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1177</v>
+        <v>-0.1334</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1185</v>
+        <v>-0.1341</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1194</v>
+        <v>-0.1348</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>9096.5841</v>
+        <v>8109.9637</v>
       </c>
       <c r="D8" s="1">
-        <v>9152.1188</v>
+        <v>8155.7445</v>
       </c>
       <c r="E8" s="1">
-        <v>9142.415000000001</v>
+        <v>8155.7946</v>
       </c>
       <c r="F8" s="1">
-        <v>9133.2809</v>
+        <v>8146.6606</v>
       </c>
       <c r="G8" s="1">
-        <v>9123.8691</v>
+        <v>8137.2488</v>
       </c>
     </row>
   </sheetData>
